--- a/data/trans_media/IQ17B_A-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ17B_A-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,16</t>
+          <t>0,02; 0,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,06</t>
+          <t>0,0; 0,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,09</t>
+          <t>0,02; 0,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,32</t>
+          <t>0,07; 0,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,19</t>
+          <t>0,06; 0,2</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,21</t>
+          <t>0,1; 0,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,26</t>
+          <t>0,13; 0,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,27</t>
+          <t>0,15; 0,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,59</t>
+          <t>0,32; 0,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,26</t>
+          <t>0,09; 0,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,21</t>
+          <t>0,12; 0,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,22</t>
+          <t>0,13; 0,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,23</t>
+          <t>0,16; 0,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,46</t>
+          <t>0,29; 0,47</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1004,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,26; 0,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 0,38</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 0,47</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 0,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 0,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 0,28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,27; 0,58</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 0,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 0,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 0,66</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 0,44</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,6</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,55</t>
+          <t>0,33; 0,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,3</t>
+          <t>0,19; 0,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,58</t>
+          <t>0,37; 0,57</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1144,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,54</t>
+          <t>0,31; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,66</t>
+          <t>0,32; 0,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,66</t>
+          <t>0,41; 0,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,91</t>
+          <t>0,48; 0,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,56</t>
+          <t>0,31; 0,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,4</t>
+          <t>0,24; 0,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,57</t>
+          <t>0,33; 0,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,51</t>
+          <t>0,34; 0,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,49</t>
+          <t>0,3; 0,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,57</t>
+          <t>0,39; 0,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,27 +1289,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,3</t>
+          <t>0,21; 0,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,35</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,66</t>
+          <t>0,44; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,23; 0,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,23</t>
+          <t>0,15; 0,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,3</t>
+          <t>0,23; 0,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,53</t>
+          <t>0,41; 0,54</t>
         </is>
       </c>
     </row>
